--- a/matches_expanded.xlsx
+++ b/matches_expanded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\volleyalex_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF89A07-17BA-497D-9C10-9FF96363DFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2F514B-411E-4F2C-AB4D-B3FB37FD60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>away_score</t>
   </si>
   <si>
-    <t>age_category</t>
-  </si>
-  <si>
     <t>2025-10-01</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>الأشبال بنين تحت 13 سنة</t>
+  </si>
+  <si>
+    <t>age_categories</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -638,16 +638,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -658,16 +658,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -678,16 +678,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -698,16 +698,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -718,16 +718,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -738,16 +738,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -758,16 +758,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -778,16 +778,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -798,16 +798,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -818,16 +818,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -838,16 +838,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -858,16 +858,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -878,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -898,16 +898,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -918,16 +918,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -938,16 +938,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -958,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -978,16 +978,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" t="s">
-        <v>23</v>
-      </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -998,16 +998,16 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1018,16 +1018,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1038,16 +1038,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1058,16 +1058,16 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1078,16 +1078,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1118,16 +1118,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1138,16 +1138,16 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1158,16 +1158,16 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1178,16 +1178,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1198,16 +1198,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1218,16 +1218,16 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1238,16 +1238,16 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1258,16 +1258,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1298,16 +1298,16 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1318,16 +1318,16 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1338,16 +1338,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1358,16 +1358,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1378,16 +1378,16 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
         <v>37</v>
       </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1398,16 +1398,16 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
